--- a/apartamentos_geneva.xlsx
+++ b/apartamentos_geneva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1105,1286 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>"Studio à Genève - meublé - piscine - proche des organisations internationales"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,760.– </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26 m2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Avenue De-Budé, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001352171</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>"Appartement à Genève"</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,500.– </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.5 </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 m2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Rue Louise-De-Frotté 35, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001337045</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>"City-Penthouse en plein coeur des rues basses"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,850.– </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 m2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Rue de la Croix-d'Or 27, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001335811</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>"Appartement en campagne"</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,210.– </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 78 m2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Route de Mon-Idée 49, 1226 Thônex</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333875</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>"Appartement à Thônex"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,564.– </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 139 m2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cour de l'Emine 1, 1226 Thônex</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001328477</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>"Studio meublé à louer au 4ème étage de la rue du Roveray 14 -1207 Genève"</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,900.– </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.5 </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40 m2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Rue Du-Roveray 14, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001318936</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>"Splendide logement dans le prestigieux quartier de Champel"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,900.– </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 69 m2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 35, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001313855</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>"5 pièces de haute qualité architecturale, centre ville"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,250.– </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 m2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Avenue de Frontenex 4, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001313160</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>"Appartement de 5.5 pièces meublé à Thônex"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,900.– </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.5 </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 130 m2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Chemin Etienne-Chennaz 15, 1226 Thônex</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001308653</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>"Spacious, peaceful, nicely furnished Apartment close to the UN"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,775.– </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120 m2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Chemin du Point-du-Jour, 1202 Geneva</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001305957</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>"Splendide logement dans le prestigieux quartier de Champel"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,850.– </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80 m2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 35, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001287129</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>"Beau logement 4.5 pièces très spacieux proche de Cornavin / Mercier"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,920.– </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Rue Jean-Gutenberg, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001271361</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>"Appartement à Genève"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,270.– </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.5 </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30 m2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Rue Jean-Charles Amat 15, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001243823</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>"Splendide logement dans le quartier de Champel"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,750.– </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 63 m2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 35, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001232755</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>"Studio à Chêne-Bougeries"</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,690.– </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28 m2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Avenue Pierre-Odier, 1224 Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001178602</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>"Appartement à Genève"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,600.– </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 60 m2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Rue de Contamines, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001158284</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>"Appartement de charme dans le vieux Chêne-Bourg"</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,090.– </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.5 </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56 m2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Rue du Gothard 7, 1225 Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000848882</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>"Bel appartement lumineux"</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,255.– </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 65 m2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Rue des Bossons 26, 1213 Onex</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/3003397551</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement au centre-ville de Genève ! Terme fixe au 31.08.2026"</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,870.– </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 105 m2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Rue Charles-Giron 14, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001225099</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>"Un projet unique au coeur de Genève"</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,460.– </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 104 m2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Rue du Vieux Collège 3, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000656611</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>"Magnificent duplex penthouse with view over the lake and large terraces"</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 11,690.– </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 286 m2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Ch. des Cornillons 86, 1292 Chambésy</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001349361</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>"Bernex - Appartement de 5 pièces en pignon et au dernier étage"</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,550.– </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 m2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Chemin de Luchepelet 11, 1233 Bernex</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001170687</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>"Magnifique duplex situé dans le complexe de la Tourelle"</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,550.– </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.5 </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 145 m2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Chemin du Champ d'Anier 9, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001343017</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>"Profitez d'un rez de jardin au coeur de Champel"</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,480.– </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 60 m2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Dumas 8, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001312745</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>"Superbe appartement meublé dans un quartier dynamique"</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,200.– </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 50 m2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Rue de la Mairie 6, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001312744</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>"De l'espace au coeur de Genève pour ce magnifique logement!"</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,930.– </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.5 </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 272 m2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Boulevard Helvétique 28, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001300096</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>"Appartement de charme en dernier étage"</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,840.– </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 79 m2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Rue du Jura 12, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001243910</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>"Magnificent apartment with 3 bedrooms - fully renovated"</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,405.– </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.5 </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 154 m2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Ch. des Cornillons 68, 1292 Chambésy</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001222675</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>"Superbe appartement meublé - Bail à court terme"</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,250.– </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54 m2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Rue de la Mairie 6, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001073764</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>"Vivre en hypercentre dans un appartement de standing !"</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,295.– </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 106 m2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Rue de l'Arquebuse 10, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001316418</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>"A saisir ! Au coeur de Genève !"</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,780.– </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 41 m2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>rue Chantepoulet 12, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001156178</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>"Appartement Organisations internationales -  quartier calme -"</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,975.– </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 78 m2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Chemin du Champ-Baron 8, 10,12, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001373009</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>"Splendide 9 pièces dans quartier résidentiel, récemment rénové"</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 6,558.– </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 184 m2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>6 Chemin de la Tourelle, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001352221</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>"Superbe appartement en pignon avec terrasse à Carouge"</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,800.– </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 155 m2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Rue des Caroubiers 12, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001350100</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>"Appartement contemporain avec terrasse - Carouge"</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,600.– </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 132 m2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Rue Jacques-Grosselin 26, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001338703</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>"Appartement meublé avec piscines sur le toit"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,100.– </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 114 m2</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Avenue De-Budé 31, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001291660</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>"Superbe appartement de réception, vue imprenable"</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 7,550.– </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 175 m2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Boulevard Helvétique 16, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001211378</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>"Joli appartement de 3 pièces de 116M2, en mezzanine à 100m du lac"</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,112.– </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 117 m2</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Rue Docteur-Alfred-Vincent 7, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001181486</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>"Exceptionnel : duplex de 373 m2 avec rooftop !"</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 9,170.– </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 10 </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 236 m2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Rue de la Synagogue 33-37, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001129598</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>"Bel appartement en plein centre ville avec vue sur le lac"</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,620.– </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 m2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Rue des Eaux-Vives 110, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001095506</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/apartamentos_geneva.xlsx
+++ b/apartamentos_geneva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2385,6 +2385,5126 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>"Magnifique duplex de 5 pièces proche Lac"</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,430.– </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 197 m2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Rue François-Bonivard 10, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000994540</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>"Superbe appartement meublé de 7 pièces à Petit-Lancy (Genève)"</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 8,000.– </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 280 m2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>5, chemin des Pâquerettes, 1213 Onex</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000970156</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>"Splendide logement en duplex à deux pas de la Gare Cornavin"</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,130.– </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 129 m2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Rue du Mont-Blanc 26, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000765656</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>"Vivre au coeur des Eaux-Vives !"</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,106.– </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53 m2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Rue du 31-Décembre 69, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001372216</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement - Carouge GE"</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,400.– </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Rue Jacques-Grosselin 26, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001372185</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>"Charmant appartement - Cologny"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,900.– </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Chemin de Planta 61, 1223 Cologny</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341191</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>"Au coeur de Champel"</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,000.– </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 79 m2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Avenue Calas 7, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001326222</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>"DUPLEX EN ATTIQUE DE 5.5 PIÈCES"</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 7,200.– </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.5 </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 173 m2</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Chemin du Molan 16 A, 1223 Cologny</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324863</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>"Appartement spacieux et lumineux dans un immeuble récent en plein centre-ville"</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,000.– </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 132 m2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Rue Adrien-Lachenal 17, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324121</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement - Genève"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,500.– </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.5 </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Rue Henri-Frédéric-Amiel 9, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001318651</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>"Vivre au coeur de Genève dans un appartement de charme"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,493.– </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.5 </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 111 m2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Avenue de Frontenex 5, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001312743</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>"Splendide appartement contemporain idéalement situé près du Lac Léman"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,780.– </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 143 m2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Rue de la Navigation 3, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001307220</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement de 5 pièces au 1er étage à Vandoeuvres"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,650.– </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 m2</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Chemin de Marclay 10, 1253 Vandoeuvres</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001303381</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>"Appartement agréable - Genève"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,150.– </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Rue du Tir 1, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001275015</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>"Un bel appartement familial ! Bail à terme fixe au 31.12.2027"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,760.– </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 71 m2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Route de Veyrier 41, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001259393</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>"Appartement de 4 pièces à Champel"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,120.– </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 106 m2</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Avenue de Champel 4, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001079846</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>"Bel appartement avec 2 chambres dans le quartier des Charmilles"</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,590.– </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 m2</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Place des Charmilles 3, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000888729</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>"3 pièces dans magnifique immeuble neuf"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,020.– </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Chemin Sur Rang 49, 1234 Vessy</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000812058</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>"Spacieux appartement aux Charmilles"</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,330.– </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 110 m2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Place des Charmilles 1, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000696265</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement au coeur des Charmilles"</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,464.– </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80 m2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Place des Charmilles 3, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001372175</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>"Champel - Hôpital"</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,450.– </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 97 m2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Emile-Yung 11, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001372135</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>"L'une des plus belles vues de Genève !"</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,895.– </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.5 </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 154 m2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Rue de Lausanne 143, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001369374</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>"Möbliertes Zimmer in modernisierter Wohnung an top Lage"</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,490.– </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 m2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Place du Cirque, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001368573</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>"Neuf - bel appartement dans une rue résidentielle à Meyrin"</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,100.– </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 124 m2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Chemin Marais-Long 28, 1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001356400</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>"Appartement agréable - Thônex"</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,900.– </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Route de Jussy 16B, 1226 Thônex</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001353843</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>"Appartement de 5 pièces spacieux, avec balcons"</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,450.– </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Route de Chêne 32a, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001352065</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>"Logement moderne au sein de l'écoquartier des Vergers"</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,366.– </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 76 m2</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Place de la Diversité 7, 1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001343011</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>"Bel appartement de 5 pièces, situé dans un cadre verdoyant et calme, proche de toutes commodités."</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,650.– </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Chemin de la Milice 30, 1228 Plan-les-Ouates</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001335164</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>"Très bel appartement créé dans les combles d'un immeuble de 1930, à 5 minutes du quartier de Rive."</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 6,300.– </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8 </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Rue Michel-Chauvet 12, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324137</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>"Appartement spacieux et lumineux dans un immeuble récent"</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,945.– </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 129 m2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Rue Adrien-Lachenal 17, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324120</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>"Appartement de 4 pièces meublé au coeur de Champel à Genève"</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,390.– </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93 m2</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Rue de l' Athénée 38, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324102</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>"Dans le quartier de Champel à Genève, grand appartement meublé de 4 pièces au 2ème étage"</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,390.– </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93 m2</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Rue de l' Athénée 38, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324100</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>"Appartement spacieux et lumineux de 4 pièces au dernier étage d'un immeuble ancien"</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,120.– </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>champel 4, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001308219</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>"Un joli studio à Carouge ! Bail à terme fixe au 31.12.2027"</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,680.– </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 29 m2</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Route de Veyrier 41, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001259400</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>"Beau duplex de 5.5 pièces dans les combles"</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,300.– </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.5 </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Quai du Cheval-Blanc 16, 1227 Les Acacias</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001213937</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>"Grand appartement à louer !"</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,250.– </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 106 m2</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Rue Liotard 61, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001211980</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>"Appartement exceptionnel - Chêne-Bougeries"</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 6,500.– </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.5 </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Route de Malagnou 241, 1224 Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001194476</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>"City Pop - Your flexible solution for long and short stays!"</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,992.– </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.5 </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 23 m2</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Rue de la Coulouvrenière 40, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001160530</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>"Votre nouvelle vie face au lac !"</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,760.– </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.5 </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 124 m2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Rue de Lausanne 145, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001111361</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement - Genève"</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,500.– </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Parc du Château-Banquet 22, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001072379</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>"Appartement de 2.5 pièces à louer aux Eaux-Vives,Quai Gustave-Ador 24"</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,650.– </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.5 </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>quai Gustave-Ador 24, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001050387</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>"Magnific apartement with 4 bedrooms"</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 6,380.– </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.5 </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 175 m2</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Ch. des Cornillons 104, 1292 Chambésy</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000988448</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>"BEL APPARTEMENT DE 8 PIÈCES TRIPLEX ATTIQUE !"</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 7,720.– </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8 </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 200 m2</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Chemin De-Normandie 4, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000608293</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement de 5 pièces au 7e étage."</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,705.– </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 115 m2</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Rue de Moillebeau 3 F, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001369432</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>"Appartement agréable - Genève"</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 6,680.– </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.5 </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Chemin Briquet 24, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001362496</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>"Appartement duplex traversant à deux pas du lac"</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,630.– </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62 m2</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Rue du Nant 23, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001353763</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement de 4.5 pièces dans le quartier de Florissant"</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,286.– </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 107 m2</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Rte de Florissant 3, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001353759</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>"Lumineux 3 pièces - Quartier de la Servette"</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,180.– </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 45 m2</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Avenue Ernest-Pictet 2, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001351191</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>"Bel appartement - Perly"</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,724.– </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Route de Saint-Julien 293, 1258 Perly</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001349714</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>"Appartement agréable - Genève"</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,500.– </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.5 </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Place de la Navigation 6, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341190</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>"Bel appartement lumineux à deux pas du Forum Meyrin"</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,290.– </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80 m2</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Rue de la Prulay 34, 1217 Meyrin</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001337133</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>"Place des Charmilles"</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,237.– </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 38 m2</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Place des Charmilles 1, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333946</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>"Beau logement situé dans le complexe de la Tourelle"</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,930.– </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 58 m2</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Chemin du Champ d'anier 13, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333939</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>"Immeuble sécurisé situé dans le quartier des Pâquis proche du lac, de la gare et des Organisations Internationales."</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,850.– </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Rue Rothschild 19, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324132</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>"Appartement meublé de 3 pièces au 4ème étage à Genève"</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,880.– </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 52 m2</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Rue Marignac 6, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324131</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>"Au calme, studio meublé au 7ème étage au coeur de Champel à Genève"</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,090.– </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26 m2</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 36, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324130</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>"Au coeur de Champel à Genève, grand appartement meublé de 3 pièces au 5ème étage"</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,380.– </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 64 m2</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 36, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324129</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>"Au coeur de Champel à Genève, appartement meublé de 3 pièces au 1er étage"</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,480.– </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 36 m2</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 36, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324128</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>"Au coeur de Champel à Genève, confortable studio meublé au 3ème étage côté cour."</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,040.– </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 26 m2</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Rue de Contamines 36, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324122</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>"Bel appartement dans un immeuble résidentiel situé au centre ville"</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,277.– </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 81 m2</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Rue Adrien-Lachenal 15, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324119</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>"Situé au coeur de Champel à Genève, studio meublé au rez supérieur"</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,840.– </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 27 m2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Rue Marignac 6, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324116</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>"4 pièces meublé au coeur de Champel à Genève"</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,690.– </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 m2</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Rue Marignac 6, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324107</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>"Grand appartement meublé de 4 pièces au coeur de Champel à Genève"</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,490.– </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 m2</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Rue Marignac 6, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324106</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>"Au centre de Champel à Genève, appartement 4 pièces meublé au 6ème étage avec ascenseur"</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,690.– </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93 m2</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Rue de l' Athénée 38, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324104</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>"Grand appartement meublé de 4 pièces au coeur de Champel à Genève"</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,490.– </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93 m2</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Rue de l' Athénée 38, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324103</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>"Au centre de Champel à Genève, appartement de 4 pièces meublé au 4ème étage avec ascenseur."</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,390.– </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93 m2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Rue de l' Athénée 38, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324101</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>"Au coeur de Champel à Genève, grand appartement meublé de 4 pièces au 1er étage"</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,180.– </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 93 m2</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Rue de l' Athénée 38, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001324099</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>"Appartement rénové dans le quartier de la Tourelle"</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,960.– </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5 </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 m2</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Chemin Moïse-Duboule 37, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001322960</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>"Rue de Graman 90 A - Puplinge"</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,310.– </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Rue de Graman 90A, 1241 Puplinge</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001318836</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>"Beau logement dans le quartier de la Servette"</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,530.– </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 61 m2</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Rue Louis-Favre 6, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001317193</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>"Appartement de 2 pièces au 5ème en face du Parc la Grange"</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,630.– </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 25 m2</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Avenue Alice-et-William-Favre 18, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001297083</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>"Appartement de 5 pièces au 7ème no 72"</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,990.– </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 104 m2</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Chemin du Champ-d'Anier 4, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001287887</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>"Logement 4,5 pièces avec terrasse en toiture Champel"</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,800.– </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 135 m2</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>13 Route du Bout-du-Monde, 1206 GENEVE</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001274825</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>"Bel appartement - Genève"</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,700.– </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Chemin Colladon 24, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001256826</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>"4 pièces à deux pas du lac !"</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,680.– </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 76 m2</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Rue Jean-Antoine Gautier 8, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001215602</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>"City Pop - Your flexible solution for long and short stays!"</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,095.– </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.5 </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 32 m2</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Rue de la Coulouvrenière 40, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001181094</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>"Appartement de 4 pièces spacieux avec terrasse et jardin"</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,400.– </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Limites 3, 1293 Bellevue</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001116463</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement - Genève"</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 7,002.– </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Rue de Candolle 22, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001072381</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>"Appartement de 5 pièces - bail à durée déterminée"</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,730.– </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 m2</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Rue des Evaux 5, 1213 Onex</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001061498</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>"Quartier des Charmilles"</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,340.– </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 110 m2</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Place des Charmilles 1, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001051464</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>"Votre rêve immobilier en plein centre"</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,510.– </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 104 m2</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Rue du Vieux Collège 3, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000935533</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>"Votre rêve immobilier en plein centre"</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,420.– </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 104 m2</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Rue du Vieux Collège 3, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4000935532</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement proche des Nations Unies"</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,240.– </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.5 </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 153 m2</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Ch. des Cornillons 88, 1292 Chambésy</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001376227</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>"Joli studio rénové proche de la gare de Champel"</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,800.– </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 45 m2</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Avenue de Miremont 15, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001371734</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>"Route de Pressy 5A - Appartement neuf - 4 pièces"</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,200.– </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Route de Pressy 5A, 1253 Vandoeuvres</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001370720</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>"Bel appartement de 3 pièces au 5ème étage"</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,460.– </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 60 m2</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Rue de Moillebeau 3B, 1209 Genève</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001369431</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>"Magnifique attique, neuf 4,5 pièces, proche du golf de Cologny, calme-beautiful top floor  flat"</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,950.– </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 90 m2</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Chemin de Marclay 5, 1223 Vandœuvres</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001368748</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>"Appartement spacieux et très bien situé"</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,290.– </t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 15 m2</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Chemin de l'Esplanade 14, 1214 Vernier</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001368605</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>"Bel appartement de 1.5 pièces au 4ème situé aux eaux-vives disponible dès que possible."</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,440.– </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.5 </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 30 m2</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Rue des Vollandes 64, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001368595</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>"Spacieux 4 pièces - Quartier de la Servette"</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,180.– </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 57 m2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Avenue Ernest-Pictet 2, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001362790</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>"Belle rénovation - Spacieux et lumineux"</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,258.– </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 167 m2</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>rue Pedro-MEYLAN 2, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001360892</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>"Appartement de 6.5 pièces au 8ème étage"</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,350.– </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Chemin des Vergers 8, 1213 Petit-Lancy</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001352689</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>"Votre nouvel appartement de 1.5 pièces dans le quartier des Eaux-Vives"</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,510.– </t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.5 </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 29 m2</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Rue du Nant 23, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001351379</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>"Lumineux appartement au coeur des Eaux-Vives"</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,950.– </t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 43 m2</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Rue du Nant 23, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001351378</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>"Beau et généreux 3 pièces avec balcon d'environ 18 m² orienté au N/E"</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,900.– </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 80 m2</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>chemin Jean-Jacques Asper 34, 1256 Troinex</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341897</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>"Spacieux et lumineux 4 pièces avec balcon de 20 m² orienté au S/E"</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,600.– </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 106 m2</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>ch. Jean-Jacques Asper 22, 1256 Troinex</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341896</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>"Bel appartement neuf - lumineux et traversant avec balcon"</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,000.– </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 m2</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>chemin de Massenet 17, 1228 Plan-les-Ouates</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341895</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>"Appartement de charme - entièrement rénové - dans l'hypercentre avec vue jet d'eau"</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 7,500.– </t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 174 m2</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>rue du Rhône 59, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341892</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>"Centre-ville - bel appartement haussmannien avec balcon et vue"</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 7,300.– </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 175 m2</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>boulevard Helvétique 16, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341891</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>"Appartement de prestige - entièrement rénové - magnifique vue sur la rade, le jet d'eau et le Mont-Blanc"</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 12,400.– </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 230 m2</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>quai du Mont-Blanc 29, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341890</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>"Vieille ville - Bourg-de-Four 8"</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,800.– </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 180 m2</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>place du Bourg-de-Four 8, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341887</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>"Appartement situé dans le quartier de Champel, proche du parc Bertrand."</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,208.– </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7.5 </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 157 m2</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Chemin Beau-Soleil 3, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333957</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>"Grand et magnifique appartement rénové de 4.5 pièces aux Eaux-Vives"</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,050.– </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 112 m2</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>rue des Eaux-Vives, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001332767</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>"Très bel appartement 5 pièces dans le quartier de plainpalais"</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,250.– </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94 m2</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Rue Vignier 5, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001319940</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>"Appartement de 5 pièces avec terrasse au rez-de-chaussée à Champel"</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,800.– </t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 124 m2</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>34, chemin de la Petite-Boissière, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001313325</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>"Spacieux 6 pièces à Chêne-Bourg route de Malagnou"</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,460.– </t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 140 m2</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>route de Malagnou 265, 1225 Chêne-Bourg</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001307040</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>"Appartement - Genève"</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,000.– </t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Boulevard de la Cluse 51, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001305614</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>"44 Ch. de la Chevillarde, appartement de 5 pièces"</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,668.– </t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Ch. de la Chevillarde 44, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001302345</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>"Bel appartement lumineux de 4 pièces au 4ème étage"</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,350.– </t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Route de Frontenex 118, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001292333</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>"Duplex en attique rénové dans le vieux Carouge"</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,650.– </t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 140 m2</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001277930</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>"Appartement de 4 pièces au 9ème étage"</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,850.– </t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Chemin des Deux-Communes 12, 1226 THÔNEX</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001272908</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>"Appartement d'exception"</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 18,000.– </t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 250 m2</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Quai Wilson 43, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001258209</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>"Bel appartement de standing à Thônex"</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,250.– </t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.5 </t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 134 m2</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1226 Thônex</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001249054</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement de 5 pièces avec grand balcon situé au 4ème étage"</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,950.– </t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 138 m2</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Chemin des Fins 5B, 1218 Grand-Saconnex</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001242024</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>"Appartement agréable - Puplinge"</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,500.– </t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Rue de Fremis 65, 1241 Puplinge</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001235507</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>"Champel - Immeuble de caractère"</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,430.– </t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62 m2</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Avenue Calas 7, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001192067</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>"Proche des Bastions - Magnifique loft meublé de 89 m2 au dernier étage"</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,421.– </t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 89 m2</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Rue Saint-Léger 8, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001161746</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>"Superbe 7 pièces lumineux au coeur de Champel Florissant"</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 8,250.– </t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 </t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Avenue Eugène-Pittard 13, 1206 Genève</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001050445</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>"Appartement de 5 pièces au 6ème"</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,950.– </t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 135 m2</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Avenue De-Budé 16, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001050372</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>"Votre nouveau cocon dans un logement rénové avec goût"</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,550.– </t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3.5 </t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 61 m2</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Boulevard de Saint-Georges 46, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001373959</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>"Duplex avec vue dégagée champêtre à Plan-les-Ouates"</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,500.– </t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1256 Troinex</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001370381</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>"Bel appartement de 3 pièces au 3e étage."</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,845.– </t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 51 m2</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Rue des Noirettes 27, 1227 Carouge</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001369430</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>"Appartement 3P proche Organisations Internationales"</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,700.– </t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 m2</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001361902</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>"Beau duplex en attique à Plan-Les-Ouates"</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,560.– </t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.5 </t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 160 m2</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1228 Plan-les-Ouates</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001361899</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>"Bel appartement meublé proche du College du Léman"</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,000.– </t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 116 m2</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1290 Versoix</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001353160</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>"Appartement de 4 pièces au Grand-Saconnex"</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,470.– </t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Route de Colovrex 49, 1218 Le Grand-Saconnex</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001352350</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>"Spacieux appartement de 8 pièces, 137m2 environ, au rez-de-chaussée. Visite groupée jeudi 8 août à 15h"</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,464.– </t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8 </t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 137 m2</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Chemin des Palettes 23, 1212 Grand-Lancy</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001349667</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>"Ch. Adolphe-Pasteur, 4 pièces traversant"</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,750.– </t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 m2</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Ch. Adolphe-Pasteur 16, 1209 Le Grand-Saconnex</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001348162</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>"Environnement verdoyant et exclusif pour ce 5 pièces contemporain à Veyrier"</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,915.– </t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 158 m2</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1255 Veyrier</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001344146</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>"Exceptionnel jardin proche du centre-ville"</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 7,300.– </t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 9 </t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Route, 1224 Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001343482</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>"Bel appartement duplex en plein coeur de la Vieille-Ville"</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,790.– </t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 m2</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Rue de la Cité 9, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001342873</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>"Loft duplex Vieille-Ville avec jardinet"</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,100.– </t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 m2</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>16, rue Etienne- Dumont, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001342630</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>"JOLI APPARTEMENT DE 3 PIÈCES PROCHE DU QUARTIER DES EAUX-VIVES"</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,270.– </t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 53 m2</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Rue Gustave Muller Brun 4, 1208 Genève</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001342610</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>"Spacieux duplex en pignon avec belle terrasse orientée au Sud"</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 5,573.– </t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 169 m2</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Route de Jussy 301-303, 1254 Jussy</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001341889</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>"Très bel appartement - Proche organisations internationale"</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,590.– </t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 70 m2</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Rue du Grand-Pré 76, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001339746</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>"Appartement de 6 pièces au 4ème étage avec magnifique vue sur le lac !"</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>On request</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6 </t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190 m2</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1207 Genève</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001339215</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>"Bel appartement en plein centre ville avec vue sur le lac"</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,930.– </t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 74 m2</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Rue des Eaux-Vives 112, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001337975</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>"Bel appartement 2 pièces de style ancien à Carouge"</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,483.– </t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 31 m2</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>avenue Industrielle, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001336642</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>"APPARTEMENT DE 4 PIECES PROCHE DE CAROUGE ET DU QUARTIER DE LA ROSERAIE"</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,800.– </t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 77 m2</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Rue de l'Aubépine 6, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001333094</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>"Appartement de 3 pièces dans Résidence de luxe avec conciergerie à deux pas du lac"</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,150.– </t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 75 m2</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1, rue Abraham- Gevray, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001332075</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>"Eaux-Vives : Joli appartement côté cour"</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,890.– </t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.5 </t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 43 m2</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Rue du Lac 10, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001330934</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>"Splendide logement en plein coeur de Genève !"</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,465.– </t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 75 m2</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Rue de Carouge 72-74, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001303778</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>"Bel appartement de 4 pièces situé dans un quartier familial"</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,136.– </t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 58 m2</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Chemin Sous-le-Têt 20, 1233 Bernex</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001276727</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>"Quartier de la Gradelle - Chêne-Bougeries - Traversant"</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,360.– </t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 6.5 </t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 94 m2</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Avenue des Amazones 10, 1224 Chêne-Bougeries</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001266897</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>"Appartement 2 pièces au RDC - Place du Temple à Carouge"</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,700.– </t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 m2</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Rue Saint-Victor 22, 1227 Carouge GE</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001253609</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>"Bel appartement avec balcon avenue de Budé"</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,900.– </t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 </t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 120 m2</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1202 Genève</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001249012</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>"Face au jet d'eau, vue spectaculaire sur le lac-Stunning view lake facing"</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,900.– </t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 75 m2</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Quai Gustave-Ador, 1207 Genève</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001245205</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>"Quartier des banques - Splendide 7 pièces, 4 chambres"</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 6,283.– </t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7 </t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Place du Cirque 3, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001244861</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>"Magnifiques triplex neufs de 6 et 8 pièces"</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 10,000.– </t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8 </t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Route de Sous-Moulin, 1226 Thônex</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001226643</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>"Magnifique appartement - Versoix"</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 6,300.– </t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4 </t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 130 m2</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Chemin des Graviers 13, 1290 Versoix</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001217456</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>"Bel appartement en plein coeur de la Vieille-Ville"</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,300.– </t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 56 m2</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Rue de la Cité 11, 1204 Genève</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001146771</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>"Magnifique 4.5 pièces avec jardin, 2 chambres"</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 3,700.– </t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.5 </t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 112 m2</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Rue Alphonse-Large 17, 1217 Satigny</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001091217</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>"Appartement de 2 pièces au 2ème étage"</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,640.– </t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 28 m2</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Rue Voltaire 31, 1201 Genève</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001066000</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>"Chambre meublée en colocation dans un appartement de 101m2, 3 colocataires"</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,460.– </t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Avenue de l'Etang 69-71, 1219 Châtelaine</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001040028</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>"1 Bedroom Apartment Junior"</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 4,049.– </t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 </t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 51 m2</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Rue de Lausanne 40, 1201 Geneva</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/3003124973</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>"Quartier de Plainpalais"</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,350.– </t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2 </t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 31 m2</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Rue Du-Bois-Melly 2, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001375036</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>"Carouge - Plainpalais"</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,120.– </t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 48 m2</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Rue Blanche 5, 1205 Genève</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001375035</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>"Appartement de 3 pièces au 5ème étage"</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,900.– </t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Rue des Charmilles 22, 1203 Genève</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001374477</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>"Appartement meublé 3P au quartier des Eaux-Vives"</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 2,200.– </t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 70 m2</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1208 Genève</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001371119</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>"Appartement de 3 pièces au 3ème étage"</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHF 1,900.– </t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 3 </t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 50 m2</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Avenue Blanc 34, 1202 Genève</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>https://www.homegate.ch/rent/4001370602</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
